--- a/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
+++ b/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25F09C35-245B-4560-81C2-256B1668868B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0795E095-9AF9-471D-9191-DA122EFF5FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{82D8D69C-7DE6-4D2E-B2AE-3319BAE7531D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17580" windowHeight="17400" tabRatio="724" firstSheet="2" activeTab="5" xr2:uid="{82D8D69C-7DE6-4D2E-B2AE-3319BAE7531D}"/>
   </bookViews>
   <sheets>
     <sheet name="6 años" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,12 @@
     <sheet name="4 AÑOS" sheetId="3" r:id="rId3"/>
     <sheet name="INDICADORES 4 años" sheetId="4" r:id="rId4"/>
     <sheet name="INDICADORES 5 años" sheetId="8" r:id="rId5"/>
-    <sheet name="DIMENSION" sheetId="5" r:id="rId6"/>
-    <sheet name="SUBDIMENSION" sheetId="6" r:id="rId7"/>
-    <sheet name="Hoja7" sheetId="7" r:id="rId8"/>
+    <sheet name="INDICADORES 6 años" sheetId="10" r:id="rId6"/>
+    <sheet name="DIMENSION" sheetId="5" r:id="rId7"/>
+    <sheet name="SUBDIMENSION" sheetId="6" r:id="rId8"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId9"/>
+    <sheet name="Hoja1" sheetId="9" r:id="rId10"/>
+    <sheet name="Hoja3" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="411">
   <si>
     <t>Área</t>
   </si>
@@ -732,7 +735,550 @@
     <t>CATALOGO_SERVICIO_EDUCATIVO</t>
   </si>
   <si>
-    <t>CODIGO AREA</t>
+    <t>Fecha en que se calificó</t>
+  </si>
+  <si>
+    <t>Calificación</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>No expresa una gran variedad de emociones.</t>
+  </si>
+  <si>
+    <t>Tiene comportamientos extremos (demasiado miedo, agresión, timidez o tristeza).</t>
+  </si>
+  <si>
+    <t>Es demasiado retraído y pasivo.</t>
+  </si>
+  <si>
+    <t>Se distrae con facilidad, tiene problemas para concentrarse en una actividad por más de 5 minutos.</t>
+  </si>
+  <si>
+    <t>No le responde a las personas o lo hace solo superficialmente.</t>
+  </si>
+  <si>
+    <t>No puede distinguir la fantasía de la realidad.</t>
+  </si>
+  <si>
+    <t>No juega a una variedad de juegos y actividades.</t>
+  </si>
+  <si>
+    <t>No puede decir su nombre y apellido.</t>
+  </si>
+  <si>
+    <t>No usa correctamente los plurales y el tiempo pasado.</t>
+  </si>
+  <si>
+    <t>No habla de sus actividades o experiencias diarias.</t>
+  </si>
+  <si>
+    <t>No dibuja.</t>
+  </si>
+  <si>
+    <t>No puede cepillarse los dientes, lavarse y secarse las manos o desvestirse sin ayuda.</t>
+  </si>
+  <si>
+    <t>EXPRESIÓN EMOCIONAL - Identifica emociones de otras niñas o niños.</t>
+  </si>
+  <si>
+    <t>EXPRESIÓN EMOCIONAL - Muestra interés y amabilidad hacia las demás personas.</t>
+  </si>
+  <si>
+    <t>IDENTIDAD - Expresa emociones y sentimientos en diferentes situaciones que vive.</t>
+  </si>
+  <si>
+    <t>IDENTIDAD - Identifica rasgos propios y los plasma por medio de un dibujo.</t>
+  </si>
+  <si>
+    <t>CONVIVENCIA - Interactúa con otros niños y niñas respetando la singularidad.</t>
+  </si>
+  <si>
+    <t>CONVIVENCIA - Establece relaciones de amistad por medio de la identificación, la comunicación y la cooperación.</t>
+  </si>
+  <si>
+    <t>JUEGO - Disfruta de juegos competitivos en diferentes situaciones.</t>
+  </si>
+  <si>
+    <t>JUEGO - Participa en juegos colaborativos, juegos de roles o juegos imaginarios con sus pares u otras personas.</t>
+  </si>
+  <si>
+    <t>JUEGO - Dramatiza cuentos e historias que inventa.</t>
+  </si>
+  <si>
+    <t>AUTONOMÍA - Realiza algunas actividades de su rutina de cuidado personal sin ayuda de un adulto.</t>
+  </si>
+  <si>
+    <t>AUTONOMÍA - Propone soluciones ante los retos de su entorno.</t>
+  </si>
+  <si>
+    <t>AUTOCUIDO - Nombra las partes íntimas de su cuerpo que nadie debe tocar.</t>
+  </si>
+  <si>
+    <t>AUTOCUIDO - Identifica situaciones de riesgo o de peligro que hay en su entorno.</t>
+  </si>
+  <si>
+    <t>AUTOCUIDO - Sigue instrucciones ante casos de peligro para evitar consecuencias negativas.</t>
+  </si>
+  <si>
+    <t>DESARROLLO MORAL - Actúa considerando las consecuencias positivas o negativas en los demás.</t>
+  </si>
+  <si>
+    <t>DESARROLLO MORAL - Resuelve conflictos de forma pacífica con ayuda de adultos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica emociones de otras niñas o niños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muestra interés y amabilidad hacia las demás personas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa emociones y sentimientos en diferentes situaciones que vive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica rasgos propios y los plasma por medio de un dibujo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Interactúa con otros niños y niñas respetando la singularidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establece relaciones de amistad por medio de la identificación, la comunicación y la cooperación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Disfruta de juegos competitivos en diferentes situaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participa en juegos colaborativos, juegos de roles o juegos imaginarios con sus pares u otras personas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dramatiza cuentos e historias que inventa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza algunas actividades de su rutina de cuidado personal sin ayuda de un adulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propone soluciones ante los retos de su entorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nombra las partes íntimas de su cuerpo que nadie debe tocar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica situaciones de riesgo o de peligro que hay en su entorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sigue instrucciones ante casos de peligro para evitar consecuencias negativas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Actúa considerando las consecuencias positivas o negativas en los demás.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resuelve conflictos de forma pacífica con ayuda de adultos.</t>
+  </si>
+  <si>
+    <t>ORDENAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salta con los dos pies hacia adelante y hacia atrás con control, equilibrio y precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Salta abriendo y cerrando las piernas con control, equilibrio y precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lanza una pelota con un bate con control, equilibrio y precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controla sus movimientos en espacios pequeños evitando obstáculos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa tijeras para recortar líneas rectas y curvas con precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Construye estructuras utilizando piezas pequeñas con coordinación y precisión de sus movimientos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respeta los márgenes con mayor precisión cuando pinta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intenta expresarse a través del dibujo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copia trazos o figuras con mayor precisión.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comunica verbalmente ideas, preferencias, sentimientos o dudas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inicia, mantiene y termina conversaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conversa sobre experiencias de su vida.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Narra cuentos cortos que incluyan secuencia de tiempo de manera lógica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comprende, memoriza y se interesa por relatos históricos, cuentos populares de hadas, de animales, rimas y poesía</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relata historias y cuenta muchas veces el mismo cuento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce y nombra algunas letras del alfabeto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce y nombra palabras que tienen el mismo sonido inicial identificando la conexión entre letras y sonidos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reacciona ante actitudes, gestos, conductas, regaños o discusiones de otras personas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa con su cuerpo diversos ritmos musicales con entusiasmo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Produce sonidos, melodías y canciones utilizando diferentes instrumentos musicales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa conocimientos, preferencias y sentimientos por medio de creaciones artísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utiliza algunas funciones de los diferentes dispositivos electrónicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza sumas y restas con menos de 10 elementos utilizando material concreto y dibujos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENSAMIENTO LÓGICO MATEMÁTICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copia números aunque sin identificar aún la cantidad que representan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Repite patrones en material concreto y en movimientos rítmicos corporales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ordena acciones presentadas en imágenes según temporalidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utiliza los términos ayer, hoy y mañana de manera correcta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Explica el uso de algunas herramientas o medios para solucionar problemas o dificultades de la vida cotidiana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resuelve problemas de la vida cotidiana que involucran adición y sustracción, en un ámbito numérico del 1 al 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establece relaciones espaciales entre sí mismo y algunos objetos en actividades diarias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compara la longitud de objetos utilizando instrumentos como una regla o un palo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utiliza nociones de tiempo como más tarde, mañana y otros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa palabras para comparar objetos como corto y cortísimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica líneas rectas y líneas curvas en dibujos y objetos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inicia la diferenciación entre la izquierda y la derecha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Construye diferentes formas con material concreto o de deshecho..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Clasifica figuras de dos y tres dimensiones a partir de su forma o tamaño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza cambios con flexibilidad durante una actividad o juego.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empieza a controlar sus impulsos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe fenómenos observables, usando adjetivos y etiquetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pregunta sobre la naturaleza o fenómenos naturales que observa en su entorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Categoriza los fenómenos observables en grupos basados en su apariencia, peso, textura, olor y sonido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establece diferencias entre un ambiente contaminado y uno no contaminado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza acciones de cuidado y protección del medio ambiente en su entorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Experimenta con diversos materiales y situaciones de la vida cotidiana y escolar descubriendo el funcionamiento de ciertas cosas o fenómenos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza predicciones e hipótesis de algunos fenómenos que observa en su entorno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Describe algunas tradiciones, costumbres, estilos de vida, personajes importantes y eventos de su familia, comunidad y país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indaga sobre personajes destacados en la historia de su país con ayuda de un adulto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa gustos y costumbres que son diferentes a las de sus amigos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participa en celebraciones con otros niños, niñas y adultos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa algunos de los derechos que tiene.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa situaciones en las que algunos de sus derechos se ven vulnerados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Coopera en actividades de la escuela y el hogar.</t>
+  </si>
+  <si>
+    <t>5P</t>
+  </si>
+  <si>
+    <t>5 AÑOS</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <t>6 AÑOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa sus emociones y sentimientos con intencionalidad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa algunas estrategias de autorregulación de las emociones como abandonar una actividad cuando está enojado, calmarse o buscar ayuda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nombra algunas de sus habilidades, emociones y logros</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conversa sobre las tradiciones y costumbres de su cultura con las que se identifica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practica acciones que contribuyen al bienestar de los demás.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resuelve conflictos con otros niños y niñas de manera acertiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desarrolla lazos de amistad que mantiene a través del tiempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practica normas sociales de convivencia al interactuar con sus pares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Organiza juegos o actividades en conjunto con otras niñas y niños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sigue las instrucciones de los juegos, comprometiéndose para el logro de una meta común.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respeta las reglas de los juegos, actividades y competencias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resuelve problemas de la vida cotidiana de manera independiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practica hábitos de higiene personal de manera independiente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practica medidas de seguridad ante riesgos o peligros fisicos o emocionales de manera consciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Evita exponerse a situaciones que le dan miedo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Practica hábitos higiénicos para cuidar su cuerpo y partes íntimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respeta ciertos valores y normas en diferentes contextos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manifiesta desagrado cuando alguien transgrede una norma.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empieza a autoevaluar su conducta en diferentes situaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supera obstáculos al correr sin caerse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baila coordinadamente con movimientos coordinados y complejos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usa correctamente el lápiz coordinando con precisión los movimientos de su brazo y su mano para realizar ejercicios de preescritura y copiar una variedad de trazos, figuras y letras respetando los espacios del papel cuaderno.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respeta las líneas o márgenes del papel al escribir o dibujar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Perfecciona sus dibujos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mantiene una conversación sin salirse del tema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa sus ideas y sentimientos con claridad al conversar sobre un tema de su interés.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comparte con sus propias palabras un cuento que escuchó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce palabras que riman o tienen el mismo sonido inicial o final de una palabra cuando le leen un texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce palabras como su nombre y el de objetos familiares en textos que lee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce la mayoría de las letras del alfabeto por su nombre y fonema en diferentes textos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Copia o escribe su nombre con ayuda en diferentes superficies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica sílabas en una palabra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa conductas y actitudes con su cuerpo y rostro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce las expresiones y actitudes no verbales de los demás a través de sus respuestas corporales o verbales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa su gusto por el baile y la música al conversar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Representa ideas o estados de ánimo a través del baile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comparte sus apreciaciones estéticas de pinturas u objetos que encuentra bonitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Combina creativamente colores y texturas en sus expresiones artísticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utiliza los diferentes dispositivos con el propósito de explorar sus funciones y divertirse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compara el número de objetos utilizando cuantificadores como más que o menos que .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuenta objetos de la vida cotidiana utilizando números hasta 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza sumas con materiales concretos o pictóricos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza restas con material concreto o pictórico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza con mayor precisión patrones o series de dos, tres o más elementos, utilizando objetos, sonidos, gestos, movimientos, material pictórico y simbólico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Completa series mencionando los elementos que las forman o faltan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conoce los días de la semana y las estaciones del año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propone distintas soluciones para los problemas que se le plantean.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expresa sus ideas para un experimento incluyendo el proceso y los resultados esperados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ordena objetos a partir de una secuencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Establece varias comparaciones simultáneas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Justifica sus acciones explicando las razones de las mismas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ordena objetos de acuerdo a su tamaño de forma creciente y decreciente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza mediciones usando algunos instrumentos como el largo de objetos con una regala, el peso con una pesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Resuelve problemas simples aplicando conceptos de ubicación, distancia y dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arma rompecabezas complejos de más de 50 piezas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sigue instrucciones relacionadas con la direccionalidad, el orden y la posición en el espacio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce la derecha y la izquierda tomando como referencia su cuerpo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planifica un juego o tarea desde el inicio hasta el final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controla sus impulsos en diferentes situaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inhibe voluntariamente sus movimientos en diferentes situaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce características y necesidades básicas de las personas, los animales y las plantas al conversar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Representa las características y necesidades básicas de las personas, los animales y las plantas a través de dibujos, dramatizaciones, maquetas o esculturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nombra cada vez una mayor variedad de insectos, animales y vegetales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica en su hogar, escuela o comunidad algunas fuentes de contaminación</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Utiliza adecuadamente las palabras reducir, reusar y reciclar en diferentes contextos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica las amenazas de los plásticos y el petróleo para todos los seres vivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Conoce la importancia de cuidar los recursos naturales mencionando propuestas de cuidado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Realiza experimentos para responder a sus propias preguntas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Analiza los resultados de un experimento comunicando soluciones propias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Representa lugares de su entorno a través de dibujos, mapas y maquetas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifica inventos que han mejorado la calidad de vida de las personas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Muestra respeto por las diferentes costumbres, opiniones y características.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Respeta a todas las personas independiente de sus diferencias individuales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participa en las decisiones que afectan a su grupo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reconoce su liderazgo y el de otros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Propone soluciones para problemas cotidianos, como algunas reglas simples de convivencia.</t>
   </si>
 </sst>
 </file>
@@ -810,7 +1356,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -833,11 +1379,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -855,6 +1416,9 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19825,6 +20389,1929 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{391377A4-33D2-4772-882F-A5ECED90F363}">
+  <dimension ref="A1:E79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:C79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C25" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D32" t="s">
+        <v>230</v>
+      </c>
+      <c r="E32" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
+      </c>
+      <c r="D59" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+      <c r="D67" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>185</v>
+      </c>
+      <c r="D68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>189</v>
+      </c>
+      <c r="D69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>189</v>
+      </c>
+      <c r="D70" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>196</v>
+      </c>
+      <c r="C73" t="s">
+        <v>197</v>
+      </c>
+      <c r="D73" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>197</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>196</v>
+      </c>
+      <c r="C75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>196</v>
+      </c>
+      <c r="C76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" t="s">
+        <v>330</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC6095C-572A-46C1-AA79-29DD9E954305}">
+  <dimension ref="A2:D84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48:C84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" customWidth="1"/>
+    <col min="3" max="3" width="126.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>138</v>
+      </c>
+      <c r="C31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>300</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>300</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>44</v>
+      </c>
+      <c r="B53" t="s">
+        <v>300</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>300</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" t="s">
+        <v>300</v>
+      </c>
+      <c r="C55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D55" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>44</v>
+      </c>
+      <c r="B56" t="s">
+        <v>300</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>300</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>44</v>
+      </c>
+      <c r="B58" t="s">
+        <v>300</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" t="s">
+        <v>300</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" t="s">
+        <v>300</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C61" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B62" t="s">
+        <v>300</v>
+      </c>
+      <c r="C62" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" t="s">
+        <v>300</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>300</v>
+      </c>
+      <c r="C65" t="s">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>44</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="D66" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="D67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>44</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>44</v>
+      </c>
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C74" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>44</v>
+      </c>
+      <c r="B75" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" t="s">
+        <v>189</v>
+      </c>
+      <c r="D75" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" t="s">
+        <v>184</v>
+      </c>
+      <c r="C76" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" t="s">
+        <v>184</v>
+      </c>
+      <c r="C77" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78" t="s">
+        <v>196</v>
+      </c>
+      <c r="C78" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" t="s">
+        <v>197</v>
+      </c>
+      <c r="D79" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>44</v>
+      </c>
+      <c r="B80" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" t="s">
+        <v>197</v>
+      </c>
+      <c r="D80" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>44</v>
+      </c>
+      <c r="B81" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" t="s">
+        <v>201</v>
+      </c>
+      <c r="D82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>44</v>
+      </c>
+      <c r="B83" t="s">
+        <v>196</v>
+      </c>
+      <c r="C83" t="s">
+        <v>201</v>
+      </c>
+      <c r="D83" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>44</v>
+      </c>
+      <c r="B84" t="s">
+        <v>196</v>
+      </c>
+      <c r="C84" t="s">
+        <v>201</v>
+      </c>
+      <c r="D84" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1584C980-107D-4C36-9637-0F24D29AE40F}">
   <dimension ref="A1"/>
@@ -19855,8 +22342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F84DB-2F50-4155-9C48-D27FE764B6F9}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:F94"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -22075,25 +24562,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338C014-ED43-4FD4-8507-33E993D7F889}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="65.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="91.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
+    <row r="1" spans="1:9" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>204</v>
       </c>
@@ -22113,32 +24600,32 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="5" customFormat="1">
+    <row r="2" spans="1:9" s="5" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>223</v>
+        <v>331</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>83</v>
+        <v>332</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:9" s="5" customFormat="1">
       <c r="B3" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1">
+    <row r="4" spans="1:9" s="6" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>204</v>
       </c>
@@ -22163,8 +24650,11 @@
       <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="8" t="s">
         <v>205</v>
       </c>
@@ -22178,13 +24668,16 @@
         <v>206</v>
       </c>
       <c r="G5">
-        <v>476</v>
+        <v>556</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="8" t="s">
         <v>205</v>
       </c>
@@ -22198,13 +24691,16 @@
         <v>206</v>
       </c>
       <c r="G6">
-        <v>477</v>
+        <v>557</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>232</v>
+      </c>
+      <c r="I6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="8" t="s">
         <v>205</v>
       </c>
@@ -22218,13 +24714,16 @@
         <v>206</v>
       </c>
       <c r="G7">
-        <v>478</v>
+        <v>558</v>
       </c>
       <c r="H7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>233</v>
+      </c>
+      <c r="I7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="8" t="s">
         <v>205</v>
       </c>
@@ -22238,13 +24737,16 @@
         <v>206</v>
       </c>
       <c r="G8">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="H8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>234</v>
+      </c>
+      <c r="I8">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="8" t="s">
         <v>205</v>
       </c>
@@ -22258,13 +24760,16 @@
         <v>206</v>
       </c>
       <c r="G9">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="H9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>235</v>
+      </c>
+      <c r="I9">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="8" t="s">
         <v>205</v>
       </c>
@@ -22278,13 +24783,16 @@
         <v>206</v>
       </c>
       <c r="G10">
-        <v>481</v>
+        <v>561</v>
       </c>
       <c r="H10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>236</v>
+      </c>
+      <c r="I10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="8" t="s">
         <v>205</v>
       </c>
@@ -22298,13 +24806,16 @@
         <v>206</v>
       </c>
       <c r="G11">
-        <v>482</v>
+        <v>562</v>
       </c>
       <c r="H11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>237</v>
+      </c>
+      <c r="I11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="8" t="s">
         <v>205</v>
       </c>
@@ -22318,13 +24829,16 @@
         <v>206</v>
       </c>
       <c r="G12">
-        <v>483</v>
+        <v>563</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I12">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="8" t="s">
         <v>205</v>
       </c>
@@ -22338,13 +24852,16 @@
         <v>206</v>
       </c>
       <c r="G13">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>239</v>
+      </c>
+      <c r="I13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="8" t="s">
         <v>205</v>
       </c>
@@ -22358,13 +24875,16 @@
         <v>206</v>
       </c>
       <c r="G14">
-        <v>485</v>
+        <v>565</v>
       </c>
       <c r="H14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>240</v>
+      </c>
+      <c r="I14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8" t="s">
         <v>205</v>
       </c>
@@ -22378,99 +24898,105 @@
         <v>206</v>
       </c>
       <c r="G15">
-        <v>486</v>
+        <v>566</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="7" customFormat="1">
-      <c r="B16" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>241</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16">
+        <v>567</v>
+      </c>
+      <c r="H16" t="s">
+        <v>242</v>
+      </c>
+      <c r="I16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G17">
-        <v>401</v>
+        <v>568</v>
       </c>
       <c r="H17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>243</v>
+      </c>
+      <c r="I17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>86</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D18" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G18">
-        <v>402</v>
+        <v>569</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="D19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19">
-        <v>403</v>
-      </c>
-      <c r="H19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>99</v>
+      </c>
+      <c r="I18">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="7" customFormat="1">
+      <c r="B19" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
         <v>207</v>
       </c>
@@ -22478,22 +25004,25 @@
         <v>2</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G20">
-        <v>404</v>
+        <v>487</v>
       </c>
       <c r="H20" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>260</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
         <v>207</v>
       </c>
@@ -22501,22 +25030,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G21">
-        <v>405</v>
+        <v>488</v>
       </c>
       <c r="H21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="8" t="s">
         <v>207</v>
       </c>
@@ -22524,22 +25056,25 @@
         <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G22">
-        <v>406</v>
+        <v>489</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>262</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="8" t="s">
         <v>207</v>
       </c>
@@ -22547,22 +25082,25 @@
         <v>2</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G23">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>263</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="8" t="s">
         <v>207</v>
       </c>
@@ -22579,13 +25117,16 @@
         <v>206</v>
       </c>
       <c r="G24">
-        <v>408</v>
+        <v>491</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>264</v>
+      </c>
+      <c r="I24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="8" t="s">
         <v>207</v>
       </c>
@@ -22602,13 +25143,16 @@
         <v>206</v>
       </c>
       <c r="G25">
-        <v>409</v>
+        <v>492</v>
       </c>
       <c r="H25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>265</v>
+      </c>
+      <c r="I25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="8" t="s">
         <v>207</v>
       </c>
@@ -22616,22 +25160,25 @@
         <v>2</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G26">
-        <v>410</v>
+        <v>493</v>
       </c>
       <c r="H26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>266</v>
+      </c>
+      <c r="I26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="8" t="s">
         <v>207</v>
       </c>
@@ -22648,13 +25195,16 @@
         <v>206</v>
       </c>
       <c r="G27">
-        <v>411</v>
+        <v>494</v>
       </c>
       <c r="H27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="8" t="s">
         <v>207</v>
       </c>
@@ -22671,13 +25221,16 @@
         <v>206</v>
       </c>
       <c r="G28">
-        <v>412</v>
+        <v>495</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>268</v>
+      </c>
+      <c r="I28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="8" t="s">
         <v>207</v>
       </c>
@@ -22694,13 +25247,16 @@
         <v>206</v>
       </c>
       <c r="G29">
-        <v>413</v>
+        <v>496</v>
       </c>
       <c r="H29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>269</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="8" t="s">
         <v>207</v>
       </c>
@@ -22717,13 +25273,16 @@
         <v>206</v>
       </c>
       <c r="G30">
-        <v>414</v>
+        <v>497</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>270</v>
+      </c>
+      <c r="I30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
         <v>207</v>
       </c>
@@ -22740,13 +25299,16 @@
         <v>206</v>
       </c>
       <c r="G31">
-        <v>415</v>
+        <v>498</v>
       </c>
       <c r="H31" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>271</v>
+      </c>
+      <c r="I31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="8" t="s">
         <v>207</v>
       </c>
@@ -22763,13 +25325,16 @@
         <v>206</v>
       </c>
       <c r="G32">
-        <v>416</v>
+        <v>499</v>
       </c>
       <c r="H32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>272</v>
+      </c>
+      <c r="I32">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="8" t="s">
         <v>207</v>
       </c>
@@ -22786,13 +25351,16 @@
         <v>206</v>
       </c>
       <c r="G33">
-        <v>417</v>
+        <v>500</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>273</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="8" t="s">
         <v>207</v>
       </c>
@@ -22809,13 +25377,16 @@
         <v>206</v>
       </c>
       <c r="G34">
-        <v>418</v>
+        <v>501</v>
       </c>
       <c r="H34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>274</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="8" t="s">
         <v>207</v>
       </c>
@@ -22832,13 +25403,16 @@
         <v>206</v>
       </c>
       <c r="G35">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="H35" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" s="7" customFormat="1">
+        <v>275</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="7" customFormat="1">
       <c r="B36" s="6" t="s">
         <v>82</v>
       </c>
@@ -22854,8 +25428,11 @@
       <c r="H36" s="6" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="8" t="s">
         <v>208</v>
       </c>
@@ -22872,13 +25449,16 @@
         <v>206</v>
       </c>
       <c r="G37">
-        <v>420</v>
+        <v>503</v>
       </c>
       <c r="H37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>277</v>
+      </c>
+      <c r="I37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="8" t="s">
         <v>208</v>
       </c>
@@ -22895,13 +25475,16 @@
         <v>206</v>
       </c>
       <c r="G38">
-        <v>421</v>
+        <v>504</v>
       </c>
       <c r="H38" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>278</v>
+      </c>
+      <c r="I38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="8" t="s">
         <v>208</v>
       </c>
@@ -22918,13 +25501,16 @@
         <v>206</v>
       </c>
       <c r="G39">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="H39" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>279</v>
+      </c>
+      <c r="I39">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="8" t="s">
         <v>208</v>
       </c>
@@ -22941,13 +25527,16 @@
         <v>206</v>
       </c>
       <c r="G40">
-        <v>423</v>
+        <v>506</v>
       </c>
       <c r="H40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>280</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="8" t="s">
         <v>208</v>
       </c>
@@ -22955,22 +25544,25 @@
         <v>22</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G41">
-        <v>424</v>
+        <v>507</v>
       </c>
       <c r="H41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>281</v>
+      </c>
+      <c r="I41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="8" t="s">
         <v>208</v>
       </c>
@@ -22987,13 +25579,16 @@
         <v>206</v>
       </c>
       <c r="G42">
-        <v>425</v>
+        <v>508</v>
       </c>
       <c r="H42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>282</v>
+      </c>
+      <c r="I42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
         <v>208</v>
       </c>
@@ -23010,13 +25605,16 @@
         <v>206</v>
       </c>
       <c r="G43">
-        <v>426</v>
+        <v>509</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>283</v>
+      </c>
+      <c r="I43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
         <v>208</v>
       </c>
@@ -23033,13 +25631,16 @@
         <v>206</v>
       </c>
       <c r="G44">
-        <v>427</v>
+        <v>510</v>
       </c>
       <c r="H44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>284</v>
+      </c>
+      <c r="I44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="8" t="s">
         <v>208</v>
       </c>
@@ -23056,53 +25657,65 @@
         <v>206</v>
       </c>
       <c r="G45">
-        <v>428</v>
+        <v>511</v>
       </c>
       <c r="H45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1">
+      <c r="B46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B46" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G46">
-        <v>429</v>
-      </c>
-      <c r="H46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" s="7" customFormat="1">
-      <c r="B47" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="D47" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F47" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47">
+        <v>512</v>
+      </c>
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="I47">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="8" t="s">
         <v>209</v>
       </c>
@@ -23122,13 +25735,16 @@
         <v>139</v>
       </c>
       <c r="G48">
-        <v>430</v>
+        <v>513</v>
       </c>
       <c r="H48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>287</v>
+      </c>
+      <c r="I48">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="8" t="s">
         <v>209</v>
       </c>
@@ -23148,13 +25764,16 @@
         <v>139</v>
       </c>
       <c r="G49">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="H49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>288</v>
+      </c>
+      <c r="I49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="8" t="s">
         <v>209</v>
       </c>
@@ -23174,13 +25793,16 @@
         <v>139</v>
       </c>
       <c r="G50">
-        <v>432</v>
+        <v>515</v>
       </c>
       <c r="H50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="I50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="8" t="s">
         <v>209</v>
       </c>
@@ -23194,19 +25816,22 @@
         <v>138</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F51" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G51">
-        <v>433</v>
+        <v>516</v>
       </c>
       <c r="H51" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>290</v>
+      </c>
+      <c r="I51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="8" t="s">
         <v>209</v>
       </c>
@@ -23226,13 +25851,16 @@
         <v>144</v>
       </c>
       <c r="G52">
-        <v>434</v>
+        <v>517</v>
       </c>
       <c r="H52" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="I52">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="8" t="s">
         <v>209</v>
       </c>
@@ -23252,13 +25880,16 @@
         <v>144</v>
       </c>
       <c r="G53">
-        <v>435</v>
+        <v>518</v>
       </c>
       <c r="H53" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>292</v>
+      </c>
+      <c r="I53">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
         <v>209</v>
       </c>
@@ -23278,13 +25909,16 @@
         <v>144</v>
       </c>
       <c r="G54">
-        <v>436</v>
+        <v>519</v>
       </c>
       <c r="H54" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="I54">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
         <v>209</v>
       </c>
@@ -23292,25 +25926,25 @@
         <v>28</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="G55">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="H55" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>294</v>
+      </c>
+      <c r="I55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="8" t="s">
         <v>209</v>
       </c>
@@ -23318,25 +25952,25 @@
         <v>28</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="F56" t="s">
-        <v>144</v>
+        <v>206</v>
       </c>
       <c r="G56">
-        <v>438</v>
+        <v>521</v>
       </c>
       <c r="H56" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>295</v>
+      </c>
+      <c r="I56">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="8" t="s">
         <v>209</v>
       </c>
@@ -23344,22 +25978,25 @@
         <v>28</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G57">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="H57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>296</v>
+      </c>
+      <c r="I57">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="8" t="s">
         <v>209</v>
       </c>
@@ -23367,22 +26004,25 @@
         <v>28</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D58" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G58">
-        <v>440</v>
+        <v>523</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>297</v>
+      </c>
+      <c r="I58">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="8" t="s">
         <v>209</v>
       </c>
@@ -23390,131 +26030,161 @@
         <v>28</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>206</v>
       </c>
       <c r="G59">
-        <v>441</v>
+        <v>524</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B60" t="s">
-        <v>28</v>
-      </c>
-      <c r="C60" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="I59">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="7" customFormat="1">
+      <c r="B60" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D60" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G60">
-        <v>442</v>
-      </c>
-      <c r="H60" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>160</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61" t="s">
+        <v>161</v>
+      </c>
+      <c r="G61">
+        <v>525</v>
+      </c>
+      <c r="H61" t="s">
+        <v>299</v>
+      </c>
+      <c r="I61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D61" t="s">
-        <v>154</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G61">
-        <v>443</v>
-      </c>
-      <c r="H61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="B62" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+      <c r="G62">
+        <v>526</v>
+      </c>
+      <c r="H62" t="s">
+        <v>301</v>
+      </c>
+      <c r="I62">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D62" t="s">
-        <v>154</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G62">
-        <v>444</v>
-      </c>
-      <c r="H62" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D63" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>206</v>
+        <v>219</v>
+      </c>
+      <c r="F63" t="s">
+        <v>165</v>
       </c>
       <c r="G63">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="7" customFormat="1">
-      <c r="B64" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="I63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F64" t="s">
+        <v>165</v>
+      </c>
+      <c r="G64">
+        <v>528</v>
+      </c>
+      <c r="H64" t="s">
+        <v>303</v>
+      </c>
+      <c r="I64">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
         <v>210</v>
       </c>
@@ -23528,19 +26198,22 @@
         <v>160</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F65" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G65">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>304</v>
+      </c>
+      <c r="I65">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="8" t="s">
         <v>210</v>
       </c>
@@ -23554,19 +26227,22 @@
         <v>160</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F66" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G66">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>305</v>
+      </c>
+      <c r="I66">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="8" t="s">
         <v>210</v>
       </c>
@@ -23580,19 +26256,22 @@
         <v>160</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F67" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="G67">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>306</v>
+      </c>
+      <c r="I67">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="8" t="s">
         <v>210</v>
       </c>
@@ -23603,22 +26282,25 @@
         <v>212</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F68" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G68">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>307</v>
+      </c>
+      <c r="I68">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="8" t="s">
         <v>210</v>
       </c>
@@ -23629,22 +26311,25 @@
         <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F69" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G69">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>308</v>
+      </c>
+      <c r="I69">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="8" t="s">
         <v>210</v>
       </c>
@@ -23658,19 +26343,22 @@
         <v>160</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F70" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G70">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="H70" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>309</v>
+      </c>
+      <c r="I70">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="8" t="s">
         <v>210</v>
       </c>
@@ -23684,19 +26372,22 @@
         <v>160</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F71" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G71">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="H71" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>310</v>
+      </c>
+      <c r="I71">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="8" t="s">
         <v>210</v>
       </c>
@@ -23710,19 +26401,22 @@
         <v>160</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G72">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="H72" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>311</v>
+      </c>
+      <c r="I72">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="8" t="s">
         <v>210</v>
       </c>
@@ -23736,19 +26430,22 @@
         <v>160</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F73" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="G73">
-        <v>454</v>
+        <v>537</v>
       </c>
       <c r="H73" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>312</v>
+      </c>
+      <c r="I73">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="8" t="s">
         <v>210</v>
       </c>
@@ -23762,19 +26459,22 @@
         <v>160</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F74" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G74">
-        <v>455</v>
+        <v>538</v>
       </c>
       <c r="H74" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>313</v>
+      </c>
+      <c r="I74">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="8" t="s">
         <v>210</v>
       </c>
@@ -23788,19 +26488,22 @@
         <v>160</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G75">
-        <v>456</v>
+        <v>539</v>
       </c>
       <c r="H75" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>314</v>
+      </c>
+      <c r="I75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="8" t="s">
         <v>210</v>
       </c>
@@ -23808,25 +26511,25 @@
         <v>44</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F76" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="G76">
-        <v>457</v>
+        <v>540</v>
       </c>
       <c r="H76" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>315</v>
+      </c>
+      <c r="I76">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="8" t="s">
         <v>210</v>
       </c>
@@ -23834,25 +26537,25 @@
         <v>44</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D77" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="F77" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="G77">
-        <v>458</v>
+        <v>541</v>
       </c>
       <c r="H77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>316</v>
+      </c>
+      <c r="I77">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="8" t="s">
         <v>210</v>
       </c>
@@ -23860,25 +26563,28 @@
         <v>44</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D78" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F78" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G78">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="H78" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>317</v>
+      </c>
+      <c r="I78">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="8" t="s">
         <v>210</v>
       </c>
@@ -23886,25 +26592,28 @@
         <v>44</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="F79" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="G79">
-        <v>460</v>
+        <v>543</v>
       </c>
       <c r="H79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>318</v>
+      </c>
+      <c r="I79">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="8" t="s">
         <v>210</v>
       </c>
@@ -23912,22 +26621,28 @@
         <v>44</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D80" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
+      </c>
+      <c r="F80" t="s">
+        <v>185</v>
       </c>
       <c r="G80">
-        <v>461</v>
+        <v>544</v>
       </c>
       <c r="H80" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>319</v>
+      </c>
+      <c r="I80">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="8" t="s">
         <v>210</v>
       </c>
@@ -23935,22 +26650,28 @@
         <v>44</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D81" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="F81" t="s">
+        <v>189</v>
       </c>
       <c r="G81">
-        <v>462</v>
+        <v>545</v>
       </c>
       <c r="H81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>320</v>
+      </c>
+      <c r="I81">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="8" t="s">
         <v>210</v>
       </c>
@@ -23964,19 +26685,22 @@
         <v>184</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F82" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G82">
-        <v>463</v>
+        <v>546</v>
       </c>
       <c r="H82" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>321</v>
+      </c>
+      <c r="I82">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="8" t="s">
         <v>210</v>
       </c>
@@ -23990,19 +26714,22 @@
         <v>184</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F83" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G83">
-        <v>464</v>
+        <v>547</v>
       </c>
       <c r="H83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>322</v>
+      </c>
+      <c r="I83">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="8" t="s">
         <v>210</v>
       </c>
@@ -24016,19 +26743,22 @@
         <v>184</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G84">
-        <v>465</v>
+        <v>548</v>
       </c>
       <c r="H84" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>323</v>
+      </c>
+      <c r="I84">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="8" t="s">
         <v>210</v>
       </c>
@@ -24036,25 +26766,28 @@
         <v>44</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D85" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G85">
-        <v>466</v>
+        <v>549</v>
       </c>
       <c r="H85" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>324</v>
+      </c>
+      <c r="I85">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="8" t="s">
         <v>210</v>
       </c>
@@ -24062,25 +26795,28 @@
         <v>44</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G86">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="H86" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>325</v>
+      </c>
+      <c r="I86">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="8" t="s">
         <v>210</v>
       </c>
@@ -24088,25 +26824,28 @@
         <v>44</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D87" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="G87">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="H87" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>326</v>
+      </c>
+      <c r="I87">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="8" t="s">
         <v>210</v>
       </c>
@@ -24114,25 +26853,28 @@
         <v>44</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D88" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F88" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G88">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="H88" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>327</v>
+      </c>
+      <c r="I88">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="8" t="s">
         <v>210</v>
       </c>
@@ -24140,25 +26882,28 @@
         <v>44</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D89" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F89" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="G89">
-        <v>470</v>
+        <v>553</v>
       </c>
       <c r="H89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>328</v>
+      </c>
+      <c r="I89">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="8" t="s">
         <v>210</v>
       </c>
@@ -24172,19 +26917,22 @@
         <v>196</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F90" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G90">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="H90" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>329</v>
+      </c>
+      <c r="I90">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="8" t="s">
         <v>210</v>
       </c>
@@ -24198,94 +26946,19 @@
         <v>196</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F91" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G91">
-        <v>472</v>
+        <v>555</v>
       </c>
       <c r="H91" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D92" t="s">
-        <v>196</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F92" t="s">
-        <v>197</v>
-      </c>
-      <c r="G92">
-        <v>473</v>
-      </c>
-      <c r="H92" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B93" t="s">
-        <v>44</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D93" t="s">
-        <v>196</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F93" t="s">
-        <v>201</v>
-      </c>
-      <c r="G93">
-        <v>474</v>
-      </c>
-      <c r="H93" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B94" t="s">
-        <v>44</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D94" t="s">
-        <v>196</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F94" t="s">
-        <v>201</v>
-      </c>
-      <c r="G94">
-        <v>475</v>
-      </c>
-      <c r="H94" t="s">
-        <v>203</v>
+        <v>330</v>
+      </c>
+      <c r="I91">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -24295,11 +26968,2268 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C67B1D-4AC9-4E7E-A474-75EB7C54EBDE}">
+  <dimension ref="A1:I83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="79.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="5" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="5" customFormat="1">
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="7" customFormat="1">
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G5">
+        <v>570</v>
+      </c>
+      <c r="H5" t="s">
+        <v>335</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6">
+        <v>571</v>
+      </c>
+      <c r="H6" t="s">
+        <v>336</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G7">
+        <v>572</v>
+      </c>
+      <c r="H7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8">
+        <v>573</v>
+      </c>
+      <c r="H8" t="s">
+        <v>338</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G9">
+        <v>574</v>
+      </c>
+      <c r="H9" t="s">
+        <v>339</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10">
+        <v>575</v>
+      </c>
+      <c r="H10" t="s">
+        <v>340</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G11">
+        <v>576</v>
+      </c>
+      <c r="H11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G12">
+        <v>577</v>
+      </c>
+      <c r="H12" t="s">
+        <v>342</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13">
+        <v>578</v>
+      </c>
+      <c r="H13" t="s">
+        <v>343</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14">
+        <v>579</v>
+      </c>
+      <c r="H14" t="s">
+        <v>344</v>
+      </c>
+      <c r="I14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G15">
+        <v>580</v>
+      </c>
+      <c r="H15" t="s">
+        <v>345</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G16">
+        <v>581</v>
+      </c>
+      <c r="H16" t="s">
+        <v>346</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17">
+        <v>582</v>
+      </c>
+      <c r="H17" t="s">
+        <v>347</v>
+      </c>
+      <c r="I17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18">
+        <v>583</v>
+      </c>
+      <c r="H18" t="s">
+        <v>348</v>
+      </c>
+      <c r="I18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19">
+        <v>584</v>
+      </c>
+      <c r="H19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20">
+        <v>585</v>
+      </c>
+      <c r="H20" t="s">
+        <v>350</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G21">
+        <v>586</v>
+      </c>
+      <c r="H21" t="s">
+        <v>351</v>
+      </c>
+      <c r="I21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G22">
+        <v>587</v>
+      </c>
+      <c r="H22" t="s">
+        <v>352</v>
+      </c>
+      <c r="I22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23">
+        <v>588</v>
+      </c>
+      <c r="H23" t="s">
+        <v>353</v>
+      </c>
+      <c r="I23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="7" customFormat="1">
+      <c r="B24" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G25">
+        <v>589</v>
+      </c>
+      <c r="H25" t="s">
+        <v>354</v>
+      </c>
+      <c r="I25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G26">
+        <v>590</v>
+      </c>
+      <c r="H26" t="s">
+        <v>355</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27">
+        <v>591</v>
+      </c>
+      <c r="H27" t="s">
+        <v>356</v>
+      </c>
+      <c r="I27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D28" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G28">
+        <v>592</v>
+      </c>
+      <c r="H28" t="s">
+        <v>357</v>
+      </c>
+      <c r="I28">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29">
+        <v>593</v>
+      </c>
+      <c r="H29" t="s">
+        <v>358</v>
+      </c>
+      <c r="I29">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="7" customFormat="1">
+      <c r="B30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" t="s">
+        <v>139</v>
+      </c>
+      <c r="G31">
+        <v>594</v>
+      </c>
+      <c r="H31" t="s">
+        <v>359</v>
+      </c>
+      <c r="I31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32">
+        <v>595</v>
+      </c>
+      <c r="H32" t="s">
+        <v>360</v>
+      </c>
+      <c r="I32">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33">
+        <v>596</v>
+      </c>
+      <c r="H33" t="s">
+        <v>361</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F34" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34">
+        <v>597</v>
+      </c>
+      <c r="H34" t="s">
+        <v>362</v>
+      </c>
+      <c r="I34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35">
+        <v>598</v>
+      </c>
+      <c r="H35" t="s">
+        <v>363</v>
+      </c>
+      <c r="I35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>138</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F36" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36">
+        <v>599</v>
+      </c>
+      <c r="H36" t="s">
+        <v>364</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37">
+        <v>600</v>
+      </c>
+      <c r="H37" t="s">
+        <v>365</v>
+      </c>
+      <c r="I37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F38" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38">
+        <v>601</v>
+      </c>
+      <c r="H38" t="s">
+        <v>366</v>
+      </c>
+      <c r="I38">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39">
+        <v>602</v>
+      </c>
+      <c r="H39" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G40">
+        <v>603</v>
+      </c>
+      <c r="H40" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41">
+        <v>604</v>
+      </c>
+      <c r="H41" t="s">
+        <v>369</v>
+      </c>
+      <c r="I41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" t="s">
+        <v>154</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G42">
+        <v>605</v>
+      </c>
+      <c r="H42" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43">
+        <v>606</v>
+      </c>
+      <c r="H43" t="s">
+        <v>371</v>
+      </c>
+      <c r="I43">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D44" t="s">
+        <v>154</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44">
+        <v>607</v>
+      </c>
+      <c r="H44" t="s">
+        <v>372</v>
+      </c>
+      <c r="I44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G45">
+        <v>608</v>
+      </c>
+      <c r="H45" t="s">
+        <v>373</v>
+      </c>
+      <c r="I45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="7" customFormat="1">
+      <c r="B46" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" t="s">
+        <v>300</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F47" t="s">
+        <v>161</v>
+      </c>
+      <c r="G47">
+        <v>609</v>
+      </c>
+      <c r="H47" t="s">
+        <v>374</v>
+      </c>
+      <c r="I47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>300</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" t="s">
+        <v>161</v>
+      </c>
+      <c r="G48">
+        <v>610</v>
+      </c>
+      <c r="H48" t="s">
+        <v>375</v>
+      </c>
+      <c r="I48">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F49" t="s">
+        <v>161</v>
+      </c>
+      <c r="G49">
+        <v>611</v>
+      </c>
+      <c r="H49" t="s">
+        <v>376</v>
+      </c>
+      <c r="I49">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D50" t="s">
+        <v>300</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50">
+        <v>612</v>
+      </c>
+      <c r="H50" t="s">
+        <v>377</v>
+      </c>
+      <c r="I50">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D51" t="s">
+        <v>300</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51">
+        <v>613</v>
+      </c>
+      <c r="H51" t="s">
+        <v>378</v>
+      </c>
+      <c r="I51">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D52" t="s">
+        <v>300</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F52" t="s">
+        <v>165</v>
+      </c>
+      <c r="G52">
+        <v>614</v>
+      </c>
+      <c r="H52" t="s">
+        <v>379</v>
+      </c>
+      <c r="I52">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>300</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53">
+        <v>615</v>
+      </c>
+      <c r="H53" t="s">
+        <v>380</v>
+      </c>
+      <c r="I53">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>300</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F54" t="s">
+        <v>169</v>
+      </c>
+      <c r="G54">
+        <v>616</v>
+      </c>
+      <c r="H54" t="s">
+        <v>381</v>
+      </c>
+      <c r="I54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D55" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G55">
+        <v>617</v>
+      </c>
+      <c r="H55" t="s">
+        <v>382</v>
+      </c>
+      <c r="I55">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" t="s">
+        <v>300</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F56" t="s">
+        <v>169</v>
+      </c>
+      <c r="G56">
+        <v>618</v>
+      </c>
+      <c r="H56" t="s">
+        <v>383</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D57" t="s">
+        <v>300</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F57" t="s">
+        <v>169</v>
+      </c>
+      <c r="G57">
+        <v>619</v>
+      </c>
+      <c r="H57" t="s">
+        <v>384</v>
+      </c>
+      <c r="I57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D58" t="s">
+        <v>300</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F58" t="s">
+        <v>169</v>
+      </c>
+      <c r="G58">
+        <v>620</v>
+      </c>
+      <c r="H58" t="s">
+        <v>385</v>
+      </c>
+      <c r="I58">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" t="s">
+        <v>300</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59">
+        <v>621</v>
+      </c>
+      <c r="H59" t="s">
+        <v>386</v>
+      </c>
+      <c r="I59">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60">
+        <v>622</v>
+      </c>
+      <c r="H60" t="s">
+        <v>387</v>
+      </c>
+      <c r="I60">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D61" t="s">
+        <v>300</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>177</v>
+      </c>
+      <c r="G61">
+        <v>623</v>
+      </c>
+      <c r="H61" t="s">
+        <v>388</v>
+      </c>
+      <c r="I61">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D62" t="s">
+        <v>300</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>177</v>
+      </c>
+      <c r="G62">
+        <v>624</v>
+      </c>
+      <c r="H62" t="s">
+        <v>389</v>
+      </c>
+      <c r="I62">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" t="s">
+        <v>300</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63">
+        <v>625</v>
+      </c>
+      <c r="H63" t="s">
+        <v>390</v>
+      </c>
+      <c r="I63">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>300</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64">
+        <v>626</v>
+      </c>
+      <c r="H64" t="s">
+        <v>391</v>
+      </c>
+      <c r="I64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>181</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G65">
+        <v>627</v>
+      </c>
+      <c r="H65" t="s">
+        <v>392</v>
+      </c>
+      <c r="I65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>181</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G66">
+        <v>628</v>
+      </c>
+      <c r="H66" t="s">
+        <v>393</v>
+      </c>
+      <c r="I66">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D67" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G67">
+        <v>629</v>
+      </c>
+      <c r="H67" t="s">
+        <v>394</v>
+      </c>
+      <c r="I67">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D68" t="s">
+        <v>184</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" t="s">
+        <v>185</v>
+      </c>
+      <c r="G68">
+        <v>630</v>
+      </c>
+      <c r="H68" t="s">
+        <v>395</v>
+      </c>
+      <c r="I68">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69" t="s">
+        <v>184</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" t="s">
+        <v>185</v>
+      </c>
+      <c r="G69">
+        <v>631</v>
+      </c>
+      <c r="H69" t="s">
+        <v>396</v>
+      </c>
+      <c r="I69">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B70" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D70" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" t="s">
+        <v>185</v>
+      </c>
+      <c r="G70">
+        <v>632</v>
+      </c>
+      <c r="H70" t="s">
+        <v>397</v>
+      </c>
+      <c r="I70">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D71" t="s">
+        <v>184</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F71" t="s">
+        <v>189</v>
+      </c>
+      <c r="G71">
+        <v>633</v>
+      </c>
+      <c r="H71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I71">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D72" t="s">
+        <v>184</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F72" t="s">
+        <v>189</v>
+      </c>
+      <c r="G72">
+        <v>634</v>
+      </c>
+      <c r="H72" t="s">
+        <v>399</v>
+      </c>
+      <c r="I72">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D73" t="s">
+        <v>184</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F73" t="s">
+        <v>189</v>
+      </c>
+      <c r="G73">
+        <v>635</v>
+      </c>
+      <c r="H73" t="s">
+        <v>400</v>
+      </c>
+      <c r="I73">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" t="s">
+        <v>189</v>
+      </c>
+      <c r="G74">
+        <v>636</v>
+      </c>
+      <c r="H74" t="s">
+        <v>401</v>
+      </c>
+      <c r="I74">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" t="s">
+        <v>184</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>193</v>
+      </c>
+      <c r="G75">
+        <v>637</v>
+      </c>
+      <c r="H75" t="s">
+        <v>402</v>
+      </c>
+      <c r="I75">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>44</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F76" t="s">
+        <v>193</v>
+      </c>
+      <c r="G76">
+        <v>638</v>
+      </c>
+      <c r="H76" t="s">
+        <v>403</v>
+      </c>
+      <c r="I76">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D77" t="s">
+        <v>196</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" t="s">
+        <v>197</v>
+      </c>
+      <c r="G77">
+        <v>639</v>
+      </c>
+      <c r="H77" t="s">
+        <v>404</v>
+      </c>
+      <c r="I77">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" t="s">
+        <v>44</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" t="s">
+        <v>197</v>
+      </c>
+      <c r="G78">
+        <v>640</v>
+      </c>
+      <c r="H78" t="s">
+        <v>405</v>
+      </c>
+      <c r="I78">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D79" t="s">
+        <v>196</v>
+      </c>
+      <c r="E79" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s">
+        <v>197</v>
+      </c>
+      <c r="G79">
+        <v>641</v>
+      </c>
+      <c r="H79" t="s">
+        <v>406</v>
+      </c>
+      <c r="I79">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B80" t="s">
+        <v>44</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D80" t="s">
+        <v>196</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" t="s">
+        <v>197</v>
+      </c>
+      <c r="G80">
+        <v>642</v>
+      </c>
+      <c r="H80" t="s">
+        <v>407</v>
+      </c>
+      <c r="I80">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D81" t="s">
+        <v>196</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81">
+        <v>643</v>
+      </c>
+      <c r="H81" t="s">
+        <v>408</v>
+      </c>
+      <c r="I81">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82">
+        <v>644</v>
+      </c>
+      <c r="H82" t="s">
+        <v>409</v>
+      </c>
+      <c r="I82">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="s">
+        <v>201</v>
+      </c>
+      <c r="G83">
+        <v>645</v>
+      </c>
+      <c r="H83" t="s">
+        <v>410</v>
+      </c>
+      <c r="I83">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{060ED5FB-D1C3-4533-BFC2-EEF9E9917811}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24307,202 +29237,334 @@
     <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" s="5" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D1" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="10" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:2">
+      <c r="A7" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="11" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:2">
+      <c r="A12" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="11" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
+      <c r="B36" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
+      <c r="B37" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA144A3A-E40D-45DA-B177-BA0B6FB28263}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24624,12 +29686,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922C3685-2D41-4853-99C6-4A236329A921}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -24893,7 +29955,153 @@
         <v>201</v>
       </c>
     </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" t="s">
+        <v>230</v>
+      </c>
+      <c r="E19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
+++ b/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6C52B9-A357-450D-81FE-68C92F261936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E27460-6585-4036-BFC4-45D2FB5E2173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="937" activeTab="3" xr2:uid="{82D8D69C-7DE6-4D2E-B2AE-3319BAE7531D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="937" activeTab="6" xr2:uid="{82D8D69C-7DE6-4D2E-B2AE-3319BAE7531D}"/>
   </bookViews>
   <sheets>
     <sheet name="6 años" sheetId="1" r:id="rId1"/>
@@ -1649,7 +1649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
@@ -1670,7 +1670,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14940,7 +14939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1252" r:id="rId4" name="Control 228">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -14965,7 +14964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1251" r:id="rId6" name="Control 227">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -14990,7 +14989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1250" r:id="rId8" name="Control 226">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15015,7 +15014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1249" r:id="rId9" name="Control 225">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15040,7 +15039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1248" r:id="rId10" name="Control 224">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId11">
+          <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15065,7 +15064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1247" r:id="rId12" name="Control 223">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15090,7 +15089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1246" r:id="rId13" name="Control 222">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15115,7 +15114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1245" r:id="rId14" name="Control 221">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15140,7 +15139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1244" r:id="rId16" name="Control 220">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15165,7 +15164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1243" r:id="rId17" name="Control 219">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15190,7 +15189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1242" r:id="rId18" name="Control 218">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId19">
+          <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15215,7 +15214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1241" r:id="rId20" name="Control 217">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15240,7 +15239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1240" r:id="rId21" name="Control 216">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15265,7 +15264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1239" r:id="rId22" name="Control 215">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId23">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15290,7 +15289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1238" r:id="rId24" name="Control 214">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15315,7 +15314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1237" r:id="rId25" name="Control 213">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15340,7 +15339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1236" r:id="rId26" name="Control 212">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId27">
+          <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15365,7 +15364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1235" r:id="rId28" name="Control 211">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15390,7 +15389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1234" r:id="rId29" name="Control 210">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15415,7 +15414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1233" r:id="rId30" name="Control 209">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId31">
+          <controlPr defaultSize="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15440,7 +15439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1232" r:id="rId32" name="Control 208">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15465,7 +15464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1231" r:id="rId33" name="Control 207">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15490,7 +15489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1230" r:id="rId34" name="Control 206">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId35">
+          <controlPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15515,7 +15514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1229" r:id="rId36" name="Control 205">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15540,7 +15539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1228" r:id="rId37" name="Control 204">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15565,7 +15564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1227" r:id="rId38" name="Control 203">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId39">
+          <controlPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15590,7 +15589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1226" r:id="rId40" name="Control 202">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15615,7 +15614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1225" r:id="rId41" name="Control 201">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15640,7 +15639,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1224" r:id="rId42" name="Control 200">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId43">
+          <controlPr defaultSize="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15665,7 +15664,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1223" r:id="rId44" name="Control 199">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15690,7 +15689,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1222" r:id="rId45" name="Control 198">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15715,7 +15714,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1221" r:id="rId46" name="Control 197">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId47">
+          <controlPr defaultSize="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15740,7 +15739,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1220" r:id="rId48" name="Control 196">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15765,7 +15764,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1219" r:id="rId49" name="Control 195">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15790,7 +15789,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1218" r:id="rId50" name="Control 194">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId51">
+          <controlPr defaultSize="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15815,7 +15814,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1217" r:id="rId52" name="Control 193">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15840,7 +15839,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1216" r:id="rId53" name="Control 192">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15865,7 +15864,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1215" r:id="rId54" name="Control 191">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId55">
+          <controlPr defaultSize="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15890,7 +15889,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1214" r:id="rId56" name="Control 190">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15915,7 +15914,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1213" r:id="rId57" name="Control 189">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15940,7 +15939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1212" r:id="rId58" name="Control 188">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId59">
+          <controlPr defaultSize="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15965,7 +15964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1211" r:id="rId60" name="Control 187">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15990,7 +15989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1210" r:id="rId61" name="Control 186">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16015,7 +16014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1209" r:id="rId62" name="Control 185">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId63">
+          <controlPr defaultSize="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16040,7 +16039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1208" r:id="rId64" name="Control 184">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16065,7 +16064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1207" r:id="rId65" name="Control 183">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16090,7 +16089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1206" r:id="rId66" name="Control 182">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId67">
+          <controlPr defaultSize="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16115,7 +16114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1205" r:id="rId68" name="Control 181">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16140,7 +16139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1204" r:id="rId69" name="Control 180">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16165,7 +16164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1203" r:id="rId70" name="Control 179">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId71">
+          <controlPr defaultSize="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16190,7 +16189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1202" r:id="rId72" name="Control 178">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16215,7 +16214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1201" r:id="rId73" name="Control 177">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16240,7 +16239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1200" r:id="rId74" name="Control 176">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId75">
+          <controlPr defaultSize="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16265,7 +16264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1199" r:id="rId76" name="Control 175">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16290,7 +16289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1198" r:id="rId77" name="Control 174">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16315,7 +16314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1197" r:id="rId78" name="Control 173">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId79">
+          <controlPr defaultSize="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16340,7 +16339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1196" r:id="rId80" name="Control 172">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16365,7 +16364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1195" r:id="rId81" name="Control 171">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16390,7 +16389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1194" r:id="rId82" name="Control 170">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId83">
+          <controlPr defaultSize="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16415,7 +16414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1193" r:id="rId84" name="Control 169">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16440,7 +16439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1192" r:id="rId85" name="Control 168">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16465,7 +16464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1191" r:id="rId86" name="Control 167">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId87">
+          <controlPr defaultSize="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16490,7 +16489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1190" r:id="rId88" name="Control 166">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16515,7 +16514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1189" r:id="rId89" name="Control 165">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16540,7 +16539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1188" r:id="rId90" name="Control 164">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId91">
+          <controlPr defaultSize="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16565,7 +16564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1187" r:id="rId92" name="Control 163">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16590,7 +16589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1186" r:id="rId93" name="Control 162">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16615,7 +16614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1185" r:id="rId94" name="Control 161">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId95">
+          <controlPr defaultSize="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16640,7 +16639,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1184" r:id="rId96" name="Control 160">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16665,7 +16664,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1183" r:id="rId97" name="Control 159">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16690,7 +16689,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1182" r:id="rId98" name="Control 158">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId99">
+          <controlPr defaultSize="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16715,7 +16714,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1181" r:id="rId100" name="Control 157">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16740,7 +16739,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1180" r:id="rId101" name="Control 156">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16765,7 +16764,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1179" r:id="rId102" name="Control 155">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId103">
+          <controlPr defaultSize="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16790,7 +16789,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1178" r:id="rId104" name="Control 154">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16815,7 +16814,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1177" r:id="rId105" name="Control 153">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16840,7 +16839,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1176" r:id="rId106" name="Control 152">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId107">
+          <controlPr defaultSize="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16865,7 +16864,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1175" r:id="rId108" name="Control 151">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16890,7 +16889,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1174" r:id="rId109" name="Control 150">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16915,7 +16914,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1173" r:id="rId110" name="Control 149">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId111">
+          <controlPr defaultSize="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16940,7 +16939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1172" r:id="rId112" name="Control 148">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16965,7 +16964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1171" r:id="rId113" name="Control 147">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16990,7 +16989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1170" r:id="rId114" name="Control 146">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId115">
+          <controlPr defaultSize="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17015,7 +17014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1169" r:id="rId116" name="Control 145">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17040,7 +17039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1168" r:id="rId117" name="Control 144">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17065,7 +17064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1167" r:id="rId118" name="Control 143">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId119">
+          <controlPr defaultSize="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17090,7 +17089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1166" r:id="rId120" name="Control 142">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17115,7 +17114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1165" r:id="rId121" name="Control 141">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17140,7 +17139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1164" r:id="rId122" name="Control 140">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId123">
+          <controlPr defaultSize="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17165,7 +17164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1163" r:id="rId124" name="Control 139">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17190,7 +17189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1162" r:id="rId125" name="Control 138">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17215,7 +17214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1161" r:id="rId126" name="Control 137">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId127">
+          <controlPr defaultSize="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17240,7 +17239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1160" r:id="rId128" name="Control 136">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17265,7 +17264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1159" r:id="rId129" name="Control 135">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17290,7 +17289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1158" r:id="rId130" name="Control 134">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId131">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17315,7 +17314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1157" r:id="rId132" name="Control 133">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17340,7 +17339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1156" r:id="rId133" name="Control 132">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17365,7 +17364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1155" r:id="rId134" name="Control 131">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId135">
+          <controlPr defaultSize="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17390,7 +17389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1154" r:id="rId136" name="Control 130">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17415,7 +17414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1153" r:id="rId137" name="Control 129">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17440,7 +17439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1152" r:id="rId138" name="Control 128">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId139">
+          <controlPr defaultSize="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17465,7 +17464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1151" r:id="rId140" name="Control 127">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17490,7 +17489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1150" r:id="rId141" name="Control 126">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17515,7 +17514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1149" r:id="rId142" name="Control 125">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId143">
+          <controlPr defaultSize="0" r:id="rId143">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17540,7 +17539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1148" r:id="rId144" name="Control 124">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17565,7 +17564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1147" r:id="rId145" name="Control 123">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17590,7 +17589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1146" r:id="rId146" name="Control 122">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId147">
+          <controlPr defaultSize="0" r:id="rId147">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17615,7 +17614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1145" r:id="rId148" name="Control 121">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17640,7 +17639,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1144" r:id="rId149" name="Control 120">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17665,7 +17664,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1143" r:id="rId150" name="Control 119">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId151">
+          <controlPr defaultSize="0" r:id="rId151">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17690,7 +17689,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1142" r:id="rId152" name="Control 118">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17715,7 +17714,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1141" r:id="rId153" name="Control 117">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17740,7 +17739,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1140" r:id="rId154" name="Control 116">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId155">
+          <controlPr defaultSize="0" r:id="rId155">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17765,7 +17764,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1139" r:id="rId156" name="Control 115">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17790,7 +17789,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1138" r:id="rId157" name="Control 114">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17815,7 +17814,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1137" r:id="rId158" name="Control 113">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId159">
+          <controlPr defaultSize="0" r:id="rId159">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17840,7 +17839,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1136" r:id="rId160" name="Control 112">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17865,7 +17864,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1135" r:id="rId161" name="Control 111">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17890,7 +17889,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1134" r:id="rId162" name="Control 110">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId163">
+          <controlPr defaultSize="0" r:id="rId163">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17915,7 +17914,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1133" r:id="rId164" name="Control 109">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17940,7 +17939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1132" r:id="rId165" name="Control 108">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17965,7 +17964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1131" r:id="rId166" name="Control 107">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId167">
+          <controlPr defaultSize="0" r:id="rId167">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17990,7 +17989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1130" r:id="rId168" name="Control 106">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18015,7 +18014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1129" r:id="rId169" name="Control 105">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18040,7 +18039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1128" r:id="rId170" name="Control 104">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId171">
+          <controlPr defaultSize="0" r:id="rId171">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18065,7 +18064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1127" r:id="rId172" name="Control 103">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18090,7 +18089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1126" r:id="rId173" name="Control 102">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18115,7 +18114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1125" r:id="rId174" name="Control 101">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId175">
+          <controlPr defaultSize="0" r:id="rId175">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18140,7 +18139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1124" r:id="rId176" name="Control 100">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18165,7 +18164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1123" r:id="rId177" name="Control 99">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18190,7 +18189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1122" r:id="rId178" name="Control 98">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId179">
+          <controlPr defaultSize="0" r:id="rId179">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18215,7 +18214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1121" r:id="rId180" name="Control 97">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18240,7 +18239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1120" r:id="rId181" name="Control 96">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18265,7 +18264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1119" r:id="rId182" name="Control 95">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId183">
+          <controlPr defaultSize="0" r:id="rId183">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18290,7 +18289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1118" r:id="rId184" name="Control 94">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18315,7 +18314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1117" r:id="rId185" name="Control 93">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18340,7 +18339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1116" r:id="rId186" name="Control 92">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId187">
+          <controlPr defaultSize="0" r:id="rId187">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18365,7 +18364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1115" r:id="rId188" name="Control 91">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18390,7 +18389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1114" r:id="rId189" name="Control 90">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18415,7 +18414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1113" r:id="rId190" name="Control 89">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId191">
+          <controlPr defaultSize="0" r:id="rId191">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18440,7 +18439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1112" r:id="rId192" name="Control 88">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18465,7 +18464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1111" r:id="rId193" name="Control 87">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18490,7 +18489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1110" r:id="rId194" name="Control 86">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId195">
+          <controlPr defaultSize="0" r:id="rId195">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18515,7 +18514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1109" r:id="rId196" name="Control 85">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18540,7 +18539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1108" r:id="rId197" name="Control 84">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18565,7 +18564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1107" r:id="rId198" name="Control 83">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId199">
+          <controlPr defaultSize="0" r:id="rId199">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18590,7 +18589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1106" r:id="rId200" name="Control 82">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18615,7 +18614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1105" r:id="rId201" name="Control 81">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18640,7 +18639,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1104" r:id="rId202" name="Control 80">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId203">
+          <controlPr defaultSize="0" r:id="rId203">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18665,7 +18664,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1103" r:id="rId204" name="Control 79">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18690,7 +18689,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1102" r:id="rId205" name="Control 78">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18715,7 +18714,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1101" r:id="rId206" name="Control 77">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId207">
+          <controlPr defaultSize="0" r:id="rId207">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18740,7 +18739,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1100" r:id="rId208" name="Control 76">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18765,7 +18764,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1099" r:id="rId209" name="Control 75">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18790,7 +18789,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1098" r:id="rId210" name="Control 74">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId211">
+          <controlPr defaultSize="0" r:id="rId211">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18815,7 +18814,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1097" r:id="rId212" name="Control 73">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18840,7 +18839,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1096" r:id="rId213" name="Control 72">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18865,7 +18864,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1095" r:id="rId214" name="Control 71">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId215">
+          <controlPr defaultSize="0" r:id="rId215">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18890,7 +18889,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1094" r:id="rId216" name="Control 70">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18915,7 +18914,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1093" r:id="rId217" name="Control 69">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18940,7 +18939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1092" r:id="rId218" name="Control 68">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId219">
+          <controlPr defaultSize="0" r:id="rId219">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18965,7 +18964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1091" r:id="rId220" name="Control 67">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18990,7 +18989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1090" r:id="rId221" name="Control 66">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19015,7 +19014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1089" r:id="rId222" name="Control 65">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId223">
+          <controlPr defaultSize="0" r:id="rId223">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19040,7 +19039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1088" r:id="rId224" name="Control 64">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19065,7 +19064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1087" r:id="rId225" name="Control 63">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19090,7 +19089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1086" r:id="rId226" name="Control 62">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId227">
+          <controlPr defaultSize="0" r:id="rId227">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19115,7 +19114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1085" r:id="rId228" name="Control 61">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19140,7 +19139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1084" r:id="rId229" name="Control 60">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19165,7 +19164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1083" r:id="rId230" name="Control 59">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId231">
+          <controlPr defaultSize="0" r:id="rId231">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19190,7 +19189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1082" r:id="rId232" name="Control 58">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19215,7 +19214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1081" r:id="rId233" name="Control 57">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19240,7 +19239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1080" r:id="rId234" name="Control 56">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId235">
+          <controlPr defaultSize="0" r:id="rId235">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19265,7 +19264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1079" r:id="rId236" name="Control 55">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19290,7 +19289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1078" r:id="rId237" name="Control 54">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19315,7 +19314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1077" r:id="rId238" name="Control 53">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId239">
+          <controlPr defaultSize="0" r:id="rId239">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19340,7 +19339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1076" r:id="rId240" name="Control 52">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19365,7 +19364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1075" r:id="rId241" name="Control 51">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19390,7 +19389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1074" r:id="rId242" name="Control 50">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId243">
+          <controlPr defaultSize="0" r:id="rId243">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19415,7 +19414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1073" r:id="rId244" name="Control 49">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19440,7 +19439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1072" r:id="rId245" name="Control 48">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19465,7 +19464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1071" r:id="rId246" name="Control 47">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId247">
+          <controlPr defaultSize="0" r:id="rId247">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19490,7 +19489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1070" r:id="rId248" name="Control 46">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19515,7 +19514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1069" r:id="rId249" name="Control 45">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19540,7 +19539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1068" r:id="rId250" name="Control 44">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId251">
+          <controlPr defaultSize="0" r:id="rId251">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19565,7 +19564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1067" r:id="rId252" name="Control 43">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19590,7 +19589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1066" r:id="rId253" name="Control 42">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19615,7 +19614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1065" r:id="rId254" name="Control 41">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId255">
+          <controlPr defaultSize="0" r:id="rId255">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19640,7 +19639,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1064" r:id="rId256" name="Control 40">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19665,7 +19664,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1063" r:id="rId257" name="Control 39">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19690,7 +19689,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1062" r:id="rId258" name="Control 38">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId259">
+          <controlPr defaultSize="0" r:id="rId259">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19715,7 +19714,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1061" r:id="rId260" name="Control 37">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19740,7 +19739,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1060" r:id="rId261" name="Control 36">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19765,7 +19764,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1059" r:id="rId262" name="Control 35">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId263">
+          <controlPr defaultSize="0" r:id="rId263">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19790,7 +19789,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1058" r:id="rId264" name="Control 34">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19815,7 +19814,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1057" r:id="rId265" name="Control 33">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19840,7 +19839,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1056" r:id="rId266" name="Control 32">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId267">
+          <controlPr defaultSize="0" r:id="rId267">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19865,7 +19864,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1055" r:id="rId268" name="Control 31">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19890,7 +19889,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1054" r:id="rId269" name="Control 30">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19915,7 +19914,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1053" r:id="rId270" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId271">
+          <controlPr defaultSize="0" r:id="rId271">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19940,7 +19939,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1052" r:id="rId272" name="Control 28">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19965,7 +19964,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1051" r:id="rId273" name="Control 27">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19990,7 +19989,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1050" r:id="rId274" name="Control 26">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId275">
+          <controlPr defaultSize="0" r:id="rId275">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20015,7 +20014,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1049" r:id="rId276" name="Control 25">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20040,7 +20039,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1048" r:id="rId277" name="Control 24">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20065,7 +20064,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1047" r:id="rId278" name="Control 23">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId279">
+          <controlPr defaultSize="0" r:id="rId279">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20090,7 +20089,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1046" r:id="rId280" name="Control 22">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20115,7 +20114,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1045" r:id="rId281" name="Control 21">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20140,7 +20139,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1044" r:id="rId282" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId283">
+          <controlPr defaultSize="0" r:id="rId283">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20165,7 +20164,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1043" r:id="rId284" name="Control 19">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20190,7 +20189,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1042" r:id="rId285" name="Control 18">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20215,7 +20214,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1041" r:id="rId286" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId287">
+          <controlPr defaultSize="0" r:id="rId287">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20240,7 +20239,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1040" r:id="rId288" name="Control 16">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20265,7 +20264,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1039" r:id="rId289" name="Control 15">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20290,7 +20289,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1038" r:id="rId290" name="Control 14">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId291">
+          <controlPr defaultSize="0" r:id="rId291">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20315,7 +20314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1037" r:id="rId292" name="Control 13">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20340,7 +20339,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1036" r:id="rId293" name="Control 12">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20365,7 +20364,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1035" r:id="rId294" name="Control 11">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId295">
+          <controlPr defaultSize="0" r:id="rId295">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20390,7 +20389,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1034" r:id="rId296" name="Control 10">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20415,7 +20414,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1033" r:id="rId297" name="Control 9">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20440,7 +20439,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1032" r:id="rId298" name="Control 8">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId299">
+          <controlPr defaultSize="0" r:id="rId299">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20465,7 +20464,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1031" r:id="rId300" name="Control 7">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20490,7 +20489,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1030" r:id="rId301" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20515,7 +20514,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1029" r:id="rId302" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId303">
+          <controlPr defaultSize="0" r:id="rId303">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20540,7 +20539,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1028" r:id="rId304" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20565,7 +20564,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1027" r:id="rId305" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20590,7 +20589,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId306" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId307">
+          <controlPr defaultSize="0" r:id="rId307">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20615,7 +20614,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1025" r:id="rId308" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -23141,8 +23140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A7F84DB-2F50-4155-9C48-D27FE764B6F9}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -23227,7 +23226,7 @@
       <c r="H4" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -23500,7 +23499,7 @@
       <c r="H16" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -24014,7 +24013,7 @@
       <c r="H36" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="12" t="s">
+      <c r="I36" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -24294,7 +24293,7 @@
       <c r="H47" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -24757,7 +24756,7 @@
       <c r="H64" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I64" s="12" t="s">
+      <c r="I64" s="7" t="s">
         <v>276</v>
       </c>
     </row>
@@ -25627,8 +25626,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="82" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -25636,20 +25638,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B338C014-ED43-4FD4-8507-33E993D7F889}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="91.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1">
@@ -28034,8 +28036,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -28043,11 +28048,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C67B1D-4AC9-4E7E-A474-75EB7C54EBDE}">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -28057,9 +28062,9 @@
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="79.5703125" customWidth="1"/>
+    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" customWidth="1"/>
+    <col min="8" max="8" width="93.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="6" customFormat="1">
@@ -30291,8 +30296,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -30300,7 +30308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43092438-BAE8-47BF-861F-6B45825C3E3F}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -32405,8 +32413,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="83" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 

--- a/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
+++ b/formatos_hoja_de_calculo/EDUCACIÓN DESARROLLO ESTANDAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\registro_academico\formatos_hoja_de_calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2835019-EF57-4F88-BCDE-5C335EBC1130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33E7514-E4A8-43C1-BD8C-13853BC0FCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="937" firstSheet="5" activeTab="13" xr2:uid="{82D8D69C-7DE6-4D2E-B2AE-3319BAE7531D}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3637" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3817" uniqueCount="570">
   <si>
     <t>Área</t>
   </si>
@@ -15197,7 +15197,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1026" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+          <controlPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15272,7 +15272,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1029" r:id="rId10" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId11">
+          <controlPr defaultSize="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15347,7 +15347,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1032" r:id="rId14" name="Control 8">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId15">
+          <controlPr defaultSize="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15422,7 +15422,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1035" r:id="rId18" name="Control 11">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId19">
+          <controlPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15497,7 +15497,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1038" r:id="rId22" name="Control 14">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId23">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15572,7 +15572,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1041" r:id="rId26" name="Control 17">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId27">
+          <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15647,7 +15647,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1044" r:id="rId30" name="Control 20">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId31">
+          <controlPr defaultSize="0" r:id="rId31">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15722,7 +15722,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1047" r:id="rId34" name="Control 23">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId35">
+          <controlPr defaultSize="0" r:id="rId35">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15797,7 +15797,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1050" r:id="rId38" name="Control 26">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId39">
+          <controlPr defaultSize="0" r:id="rId39">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15872,7 +15872,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1053" r:id="rId42" name="Control 29">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId43">
+          <controlPr defaultSize="0" r:id="rId43">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -15947,7 +15947,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1056" r:id="rId46" name="Control 32">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId47">
+          <controlPr defaultSize="0" r:id="rId47">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16022,7 +16022,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1059" r:id="rId50" name="Control 35">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId51">
+          <controlPr defaultSize="0" r:id="rId51">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16097,7 +16097,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1062" r:id="rId54" name="Control 38">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId55">
+          <controlPr defaultSize="0" r:id="rId55">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16172,7 +16172,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1065" r:id="rId58" name="Control 41">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId59">
+          <controlPr defaultSize="0" r:id="rId59">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16247,7 +16247,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1068" r:id="rId62" name="Control 44">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId63">
+          <controlPr defaultSize="0" r:id="rId63">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16322,7 +16322,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1071" r:id="rId66" name="Control 47">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId67">
+          <controlPr defaultSize="0" r:id="rId67">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16397,7 +16397,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1074" r:id="rId70" name="Control 50">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId71">
+          <controlPr defaultSize="0" r:id="rId71">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16472,7 +16472,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1077" r:id="rId74" name="Control 53">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId75">
+          <controlPr defaultSize="0" r:id="rId75">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16547,7 +16547,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1080" r:id="rId78" name="Control 56">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId79">
+          <controlPr defaultSize="0" r:id="rId79">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16622,7 +16622,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1083" r:id="rId82" name="Control 59">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId83">
+          <controlPr defaultSize="0" r:id="rId83">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16697,7 +16697,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1086" r:id="rId86" name="Control 62">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId87">
+          <controlPr defaultSize="0" r:id="rId87">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16772,7 +16772,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1089" r:id="rId90" name="Control 65">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId91">
+          <controlPr defaultSize="0" r:id="rId91">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16847,7 +16847,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1092" r:id="rId94" name="Control 68">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId95">
+          <controlPr defaultSize="0" r:id="rId95">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16922,7 +16922,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1095" r:id="rId98" name="Control 71">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId99">
+          <controlPr defaultSize="0" r:id="rId99">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -16997,7 +16997,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1098" r:id="rId102" name="Control 74">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId103">
+          <controlPr defaultSize="0" r:id="rId103">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17072,7 +17072,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1101" r:id="rId106" name="Control 77">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId107">
+          <controlPr defaultSize="0" r:id="rId107">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17147,7 +17147,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1104" r:id="rId110" name="Control 80">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId111">
+          <controlPr defaultSize="0" r:id="rId111">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17222,7 +17222,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1107" r:id="rId114" name="Control 83">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId115">
+          <controlPr defaultSize="0" r:id="rId115">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17297,7 +17297,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1110" r:id="rId118" name="Control 86">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId119">
+          <controlPr defaultSize="0" r:id="rId119">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17372,7 +17372,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1113" r:id="rId122" name="Control 89">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId123">
+          <controlPr defaultSize="0" r:id="rId123">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17447,7 +17447,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1116" r:id="rId126" name="Control 92">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId127">
+          <controlPr defaultSize="0" r:id="rId127">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17522,7 +17522,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1119" r:id="rId130" name="Control 95">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId131">
+          <controlPr defaultSize="0" r:id="rId131">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17597,7 +17597,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1122" r:id="rId134" name="Control 98">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId135">
+          <controlPr defaultSize="0" r:id="rId135">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17672,7 +17672,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1125" r:id="rId138" name="Control 101">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId139">
+          <controlPr defaultSize="0" r:id="rId139">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17747,7 +17747,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1128" r:id="rId142" name="Control 104">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId143">
+          <controlPr defaultSize="0" r:id="rId143">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17822,7 +17822,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1131" r:id="rId146" name="Control 107">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId147">
+          <controlPr defaultSize="0" r:id="rId147">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17897,7 +17897,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1134" r:id="rId150" name="Control 110">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId151">
+          <controlPr defaultSize="0" r:id="rId151">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -17972,7 +17972,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1137" r:id="rId154" name="Control 113">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId155">
+          <controlPr defaultSize="0" r:id="rId155">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18047,7 +18047,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1140" r:id="rId158" name="Control 116">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId159">
+          <controlPr defaultSize="0" r:id="rId159">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18122,7 +18122,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1143" r:id="rId162" name="Control 119">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId163">
+          <controlPr defaultSize="0" r:id="rId163">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18197,7 +18197,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1146" r:id="rId166" name="Control 122">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId167">
+          <controlPr defaultSize="0" r:id="rId167">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18272,7 +18272,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1149" r:id="rId170" name="Control 125">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId171">
+          <controlPr defaultSize="0" r:id="rId171">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18347,7 +18347,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1152" r:id="rId174" name="Control 128">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId175">
+          <controlPr defaultSize="0" r:id="rId175">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18422,7 +18422,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1155" r:id="rId178" name="Control 131">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId179">
+          <controlPr defaultSize="0" r:id="rId179">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18497,7 +18497,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1158" r:id="rId182" name="Control 134">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId183">
+          <controlPr defaultSize="0" r:id="rId183">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18572,7 +18572,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1161" r:id="rId186" name="Control 137">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId187">
+          <controlPr defaultSize="0" r:id="rId187">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18647,7 +18647,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1164" r:id="rId190" name="Control 140">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId191">
+          <controlPr defaultSize="0" r:id="rId191">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18722,7 +18722,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1167" r:id="rId194" name="Control 143">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId195">
+          <controlPr defaultSize="0" r:id="rId195">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18797,7 +18797,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1170" r:id="rId198" name="Control 146">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId199">
+          <controlPr defaultSize="0" r:id="rId199">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18872,7 +18872,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1173" r:id="rId202" name="Control 149">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId203">
+          <controlPr defaultSize="0" r:id="rId203">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -18947,7 +18947,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1176" r:id="rId206" name="Control 152">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId207">
+          <controlPr defaultSize="0" r:id="rId207">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19022,7 +19022,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1179" r:id="rId210" name="Control 155">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId211">
+          <controlPr defaultSize="0" r:id="rId211">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19097,7 +19097,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1182" r:id="rId214" name="Control 158">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId215">
+          <controlPr defaultSize="0" r:id="rId215">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19172,7 +19172,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1185" r:id="rId218" name="Control 161">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId219">
+          <controlPr defaultSize="0" r:id="rId219">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19247,7 +19247,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1188" r:id="rId222" name="Control 164">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId223">
+          <controlPr defaultSize="0" r:id="rId223">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19322,7 +19322,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1191" r:id="rId226" name="Control 167">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId227">
+          <controlPr defaultSize="0" r:id="rId227">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19397,7 +19397,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1194" r:id="rId230" name="Control 170">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId231">
+          <controlPr defaultSize="0" r:id="rId231">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19472,7 +19472,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1197" r:id="rId234" name="Control 173">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId235">
+          <controlPr defaultSize="0" r:id="rId235">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19547,7 +19547,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1200" r:id="rId238" name="Control 176">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId239">
+          <controlPr defaultSize="0" r:id="rId239">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19622,7 +19622,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1203" r:id="rId242" name="Control 179">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId243">
+          <controlPr defaultSize="0" r:id="rId243">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19697,7 +19697,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1206" r:id="rId246" name="Control 182">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId247">
+          <controlPr defaultSize="0" r:id="rId247">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19772,7 +19772,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1209" r:id="rId250" name="Control 185">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId251">
+          <controlPr defaultSize="0" r:id="rId251">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19847,7 +19847,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1212" r:id="rId254" name="Control 188">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId255">
+          <controlPr defaultSize="0" r:id="rId255">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19922,7 +19922,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1215" r:id="rId258" name="Control 191">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId259">
+          <controlPr defaultSize="0" r:id="rId259">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -19997,7 +19997,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1218" r:id="rId262" name="Control 194">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId263">
+          <controlPr defaultSize="0" r:id="rId263">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20072,7 +20072,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1221" r:id="rId266" name="Control 197">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId267">
+          <controlPr defaultSize="0" r:id="rId267">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20147,7 +20147,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1224" r:id="rId270" name="Control 200">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId271">
+          <controlPr defaultSize="0" r:id="rId271">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20222,7 +20222,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1227" r:id="rId274" name="Control 203">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId275">
+          <controlPr defaultSize="0" r:id="rId275">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20297,7 +20297,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1230" r:id="rId278" name="Control 206">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId279">
+          <controlPr defaultSize="0" r:id="rId279">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20372,7 +20372,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1233" r:id="rId282" name="Control 209">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId283">
+          <controlPr defaultSize="0" r:id="rId283">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20447,7 +20447,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1236" r:id="rId286" name="Control 212">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId287">
+          <controlPr defaultSize="0" r:id="rId287">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20522,7 +20522,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1239" r:id="rId290" name="Control 215">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId291">
+          <controlPr defaultSize="0" r:id="rId291">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20597,7 +20597,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1242" r:id="rId294" name="Control 218">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId295">
+          <controlPr defaultSize="0" r:id="rId295">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20672,7 +20672,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1245" r:id="rId298" name="Control 221">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId299">
+          <controlPr defaultSize="0" r:id="rId299">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20747,7 +20747,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1248" r:id="rId302" name="Control 224">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId303">
+          <controlPr defaultSize="0" r:id="rId303">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -20822,7 +20822,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <control shapeId="1251" r:id="rId306" name="Control 227">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId307">
+          <controlPr defaultSize="0" r:id="rId307">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -23347,8 +23347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA03B937-062A-4EF2-A1A1-4114D82637F3}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A65" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44:I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23433,7 +23433,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B5" t="s">
         <v>497</v>
@@ -23466,7 +23466,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>497</v>
@@ -23499,7 +23499,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B7" t="s">
         <v>497</v>
@@ -23532,7 +23532,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>497</v>
@@ -23565,7 +23565,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
         <v>497</v>
@@ -23598,7 +23598,7 @@
     </row>
     <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B10" t="s">
         <v>497</v>
@@ -23631,7 +23631,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>497</v>
@@ -23664,7 +23664,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
         <v>497</v>
@@ -23697,7 +23697,7 @@
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>497</v>
@@ -23730,7 +23730,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B14" t="s">
         <v>497</v>
@@ -23763,7 +23763,7 @@
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
         <v>497</v>
@@ -23796,7 +23796,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
         <v>497</v>
@@ -23829,7 +23829,7 @@
     </row>
     <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B17" t="s">
         <v>497</v>
@@ -23862,7 +23862,7 @@
     </row>
     <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s">
         <v>497</v>
@@ -23895,7 +23895,7 @@
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
         <v>497</v>
@@ -23928,7 +23928,7 @@
     </row>
     <row r="20" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
         <v>497</v>
@@ -23961,7 +23961,7 @@
     </row>
     <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>497</v>
@@ -23994,7 +23994,7 @@
     </row>
     <row r="22" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s">
         <v>497</v>
@@ -24027,7 +24027,7 @@
     </row>
     <row r="23" spans="1:10" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B23" t="s">
         <v>497</v>
@@ -24060,7 +24060,7 @@
     </row>
     <row r="24" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
         <v>497</v>
@@ -24093,7 +24093,7 @@
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s">
         <v>497</v>
@@ -24126,7 +24126,7 @@
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B26" t="s">
         <v>497</v>
@@ -24159,7 +24159,7 @@
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B27" t="s">
         <v>497</v>
@@ -24192,7 +24192,7 @@
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B28" t="s">
         <v>497</v>
@@ -24225,7 +24225,7 @@
     </row>
     <row r="29" spans="1:10" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s">
         <v>497</v>
@@ -24258,7 +24258,7 @@
     </row>
     <row r="30" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B30" t="s">
         <v>497</v>
@@ -24291,7 +24291,7 @@
     </row>
     <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B31" t="s">
         <v>497</v>
@@ -24324,7 +24324,7 @@
     </row>
     <row r="32" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B32" t="s">
         <v>497</v>
@@ -24357,7 +24357,7 @@
     </row>
     <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B33" t="s">
         <v>497</v>
@@ -24390,7 +24390,7 @@
     </row>
     <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
         <v>497</v>
@@ -24423,7 +24423,7 @@
     </row>
     <row r="35" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
         <v>497</v>
@@ -24456,7 +24456,7 @@
     </row>
     <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B36" t="s">
         <v>497</v>
@@ -24489,7 +24489,7 @@
     </row>
     <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
         <v>497</v>
@@ -24522,7 +24522,7 @@
     </row>
     <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
         <v>497</v>
@@ -24555,7 +24555,7 @@
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
         <v>497</v>
@@ -24588,7 +24588,7 @@
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B40" t="s">
         <v>497</v>
@@ -24621,7 +24621,7 @@
     </row>
     <row r="41" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B41" t="s">
         <v>497</v>
@@ -24654,7 +24654,7 @@
     </row>
     <row r="42" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B42" t="s">
         <v>497</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="43" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
         <v>497</v>
@@ -24720,7 +24720,7 @@
     </row>
     <row r="44" spans="1:10" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
         <v>497</v>
@@ -24752,11 +24752,32 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B45" t="s">
+        <v>497</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>498</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" t="s">
+        <v>498</v>
+      </c>
+      <c r="G45">
+        <v>777</v>
+      </c>
       <c r="H45" s="12" t="s">
         <v>540</v>
+      </c>
+      <c r="I45">
+        <v>41</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
@@ -24764,11 +24785,32 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" t="s">
+        <v>497</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" t="s">
+        <v>498</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F46" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46">
+        <v>778</v>
+      </c>
       <c r="H46" s="12" t="s">
         <v>541</v>
+      </c>
+      <c r="I46">
+        <v>42</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
@@ -24776,11 +24818,32 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>497</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>498</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" t="s">
+        <v>498</v>
+      </c>
+      <c r="G47">
+        <v>779</v>
+      </c>
       <c r="H47" s="12" t="s">
         <v>542</v>
+      </c>
+      <c r="I47">
+        <v>43</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
@@ -24788,11 +24851,32 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>497</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D48" t="s">
+        <v>498</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F48" t="s">
+        <v>498</v>
+      </c>
+      <c r="G48">
+        <v>780</v>
+      </c>
       <c r="H48" s="12" t="s">
         <v>543</v>
+      </c>
+      <c r="I48">
+        <v>44</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
@@ -24800,11 +24884,32 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" t="s">
+        <v>497</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>498</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F49" t="s">
+        <v>498</v>
+      </c>
+      <c r="G49">
+        <v>781</v>
+      </c>
       <c r="H49" s="12" t="s">
         <v>544</v>
+      </c>
+      <c r="I49">
+        <v>45</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -24812,11 +24917,32 @@
       </c>
     </row>
     <row r="50" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
-      <c r="C50" s="8"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" t="s">
+        <v>497</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D50" t="s">
+        <v>498</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" t="s">
+        <v>498</v>
+      </c>
+      <c r="G50">
+        <v>782</v>
+      </c>
       <c r="H50" s="12" t="s">
         <v>545</v>
+      </c>
+      <c r="I50">
+        <v>46</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
@@ -24824,11 +24950,32 @@
       </c>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B51" t="s">
+        <v>497</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" t="s">
+        <v>498</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F51" t="s">
+        <v>498</v>
+      </c>
+      <c r="G51">
+        <v>783</v>
+      </c>
       <c r="H51" s="12" t="s">
         <v>546</v>
+      </c>
+      <c r="I51">
+        <v>47</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
@@ -24836,11 +24983,32 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B52" t="s">
+        <v>497</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>498</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" t="s">
+        <v>498</v>
+      </c>
+      <c r="G52">
+        <v>784</v>
+      </c>
       <c r="H52" s="12" t="s">
         <v>547</v>
+      </c>
+      <c r="I52">
+        <v>48</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
@@ -24848,11 +25016,32 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B53" t="s">
+        <v>497</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D53" t="s">
+        <v>498</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F53" t="s">
+        <v>498</v>
+      </c>
+      <c r="G53">
+        <v>785</v>
+      </c>
       <c r="H53" s="12" t="s">
         <v>548</v>
+      </c>
+      <c r="I53">
+        <v>49</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
@@ -24860,11 +25049,32 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
-      <c r="C54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" t="s">
+        <v>497</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" t="s">
+        <v>498</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" t="s">
+        <v>498</v>
+      </c>
+      <c r="G54">
+        <v>786</v>
+      </c>
       <c r="H54" s="12" t="s">
         <v>549</v>
+      </c>
+      <c r="I54">
+        <v>50</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
@@ -24872,11 +25082,32 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="C55" s="8"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B55" t="s">
+        <v>497</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>498</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" t="s">
+        <v>498</v>
+      </c>
+      <c r="G55">
+        <v>787</v>
+      </c>
       <c r="H55" s="12" t="s">
         <v>550</v>
+      </c>
+      <c r="I55">
+        <v>51</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
@@ -24884,11 +25115,32 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8"/>
-      <c r="C56" s="8"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" t="s">
+        <v>497</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" t="s">
+        <v>498</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F56" t="s">
+        <v>498</v>
+      </c>
+      <c r="G56">
+        <v>788</v>
+      </c>
       <c r="H56" s="12" t="s">
         <v>551</v>
+      </c>
+      <c r="I56">
+        <v>52</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
@@ -24896,11 +25148,32 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" t="s">
+        <v>498</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F57" t="s">
+        <v>498</v>
+      </c>
+      <c r="G57">
+        <v>789</v>
+      </c>
       <c r="H57" s="12" t="s">
         <v>552</v>
+      </c>
+      <c r="I57">
+        <v>53</v>
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
@@ -24908,11 +25181,32 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" t="s">
+        <v>497</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>498</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58" t="s">
+        <v>498</v>
+      </c>
+      <c r="G58">
+        <v>790</v>
+      </c>
       <c r="H58" s="12" t="s">
         <v>553</v>
+      </c>
+      <c r="I58">
+        <v>54</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
@@ -24920,11 +25214,32 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
-      <c r="C59" s="8"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>497</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D59" t="s">
+        <v>498</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F59" t="s">
+        <v>498</v>
+      </c>
+      <c r="G59">
+        <v>791</v>
+      </c>
       <c r="H59" s="12" t="s">
         <v>554</v>
+      </c>
+      <c r="I59">
+        <v>55</v>
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
@@ -24932,11 +25247,32 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
-      <c r="C60" s="8"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" t="s">
+        <v>497</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D60" t="s">
+        <v>498</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F60" t="s">
+        <v>498</v>
+      </c>
+      <c r="G60">
+        <v>792</v>
+      </c>
       <c r="H60" s="12" t="s">
         <v>555</v>
+      </c>
+      <c r="I60">
+        <v>56</v>
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
@@ -24944,11 +25280,32 @@
       </c>
     </row>
     <row r="61" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B61" t="s">
+        <v>497</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" t="s">
+        <v>498</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F61" t="s">
+        <v>498</v>
+      </c>
+      <c r="G61">
+        <v>793</v>
+      </c>
       <c r="H61" s="12" t="s">
         <v>556</v>
+      </c>
+      <c r="I61">
+        <v>57</v>
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
@@ -24956,11 +25313,32 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
-      <c r="C62" s="8"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s">
+        <v>497</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D62" t="s">
+        <v>498</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62">
+        <v>794</v>
+      </c>
       <c r="H62" s="12" t="s">
         <v>557</v>
+      </c>
+      <c r="I62">
+        <v>58</v>
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
@@ -24968,11 +25346,32 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
-      <c r="C63" s="8"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" t="s">
+        <v>497</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" t="s">
+        <v>498</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>498</v>
+      </c>
+      <c r="G63">
+        <v>795</v>
+      </c>
       <c r="H63" s="12" t="s">
         <v>558</v>
+      </c>
+      <c r="I63">
+        <v>59</v>
       </c>
       <c r="J63">
         <f t="shared" si="0"/>
@@ -24980,11 +25379,32 @@
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
-      <c r="C64" s="8"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" t="s">
+        <v>497</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" t="s">
+        <v>498</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F64" t="s">
+        <v>498</v>
+      </c>
+      <c r="G64">
+        <v>796</v>
+      </c>
       <c r="H64" s="12" t="s">
         <v>559</v>
+      </c>
+      <c r="I64">
+        <v>60</v>
       </c>
       <c r="J64">
         <f t="shared" si="0"/>
@@ -24992,11 +25412,32 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="8"/>
-      <c r="C65" s="8"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s">
+        <v>497</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D65" t="s">
+        <v>498</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F65" t="s">
+        <v>498</v>
+      </c>
+      <c r="G65">
+        <v>797</v>
+      </c>
       <c r="H65" s="12" t="s">
         <v>560</v>
+      </c>
+      <c r="I65">
+        <v>61</v>
       </c>
       <c r="J65">
         <f t="shared" si="0"/>
@@ -25004,11 +25445,32 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B66" t="s">
+        <v>497</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" t="s">
+        <v>498</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F66" t="s">
+        <v>498</v>
+      </c>
+      <c r="G66">
+        <v>798</v>
+      </c>
       <c r="H66" s="12" t="s">
         <v>561</v>
+      </c>
+      <c r="I66">
+        <v>62</v>
       </c>
       <c r="J66">
         <f t="shared" si="0"/>
@@ -25016,11 +25478,32 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B67" t="s">
+        <v>497</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>498</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" t="s">
+        <v>498</v>
+      </c>
+      <c r="G67">
+        <v>799</v>
+      </c>
       <c r="H67" s="12" t="s">
         <v>562</v>
+      </c>
+      <c r="I67">
+        <v>63</v>
       </c>
       <c r="J67">
         <f t="shared" si="0"/>
@@ -25028,11 +25511,32 @@
       </c>
     </row>
     <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
-      <c r="C68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
+        <v>497</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D68" t="s">
+        <v>498</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F68" t="s">
+        <v>498</v>
+      </c>
+      <c r="G68">
+        <v>800</v>
+      </c>
       <c r="H68" s="12" t="s">
         <v>563</v>
+      </c>
+      <c r="I68">
+        <v>64</v>
       </c>
       <c r="J68">
         <f t="shared" si="0"/>
@@ -25040,11 +25544,32 @@
       </c>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" t="s">
+        <v>497</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D69" t="s">
+        <v>498</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F69" t="s">
+        <v>498</v>
+      </c>
+      <c r="G69">
+        <v>801</v>
+      </c>
       <c r="H69" s="12" t="s">
         <v>564</v>
+      </c>
+      <c r="I69">
+        <v>65</v>
       </c>
       <c r="J69">
         <f t="shared" si="0"/>
@@ -25052,11 +25577,32 @@
       </c>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="8"/>
-      <c r="C70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" t="s">
+        <v>497</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D70" t="s">
+        <v>498</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70">
+        <v>802</v>
+      </c>
       <c r="H70" s="12" t="s">
         <v>565</v>
+      </c>
+      <c r="I70">
+        <v>66</v>
       </c>
       <c r="J70">
         <f t="shared" ref="J70:J74" si="1">LEN(H70)</f>
@@ -25064,11 +25610,32 @@
       </c>
     </row>
     <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" t="s">
+        <v>497</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" t="s">
+        <v>498</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" t="s">
+        <v>498</v>
+      </c>
+      <c r="G71">
+        <v>803</v>
+      </c>
       <c r="H71" s="12" t="s">
         <v>566</v>
+      </c>
+      <c r="I71">
+        <v>67</v>
       </c>
       <c r="J71">
         <f t="shared" si="1"/>
@@ -25076,11 +25643,32 @@
       </c>
     </row>
     <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
-      <c r="C72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="A72" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B72" t="s">
+        <v>497</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D72" t="s">
+        <v>498</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" t="s">
+        <v>498</v>
+      </c>
+      <c r="G72">
+        <v>804</v>
+      </c>
       <c r="H72" s="12" t="s">
         <v>567</v>
+      </c>
+      <c r="I72">
+        <v>68</v>
       </c>
       <c r="J72">
         <f t="shared" si="1"/>
@@ -25088,11 +25676,32 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>497</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D73" t="s">
+        <v>498</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" t="s">
+        <v>498</v>
+      </c>
+      <c r="G73">
+        <v>805</v>
+      </c>
       <c r="H73" s="12" t="s">
         <v>568</v>
+      </c>
+      <c r="I73">
+        <v>69</v>
       </c>
       <c r="J73">
         <f t="shared" si="1"/>
@@ -25100,11 +25709,32 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="s">
+        <v>498</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" t="s">
+        <v>498</v>
+      </c>
+      <c r="G74">
+        <v>806</v>
+      </c>
       <c r="H74" s="12" t="s">
         <v>569</v>
+      </c>
+      <c r="I74">
+        <v>70</v>
       </c>
       <c r="J74">
         <f t="shared" si="1"/>
